--- a/data/ch07/webpage_data/네이버_금융_환율_리스트.xlsx
+++ b/data/ch07/webpage_data/네이버_금융_환율_리스트.xlsx
@@ -14,27 +14,159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>일</t>
-  </si>
-  <si>
-    <t>월</t>
-  </si>
-  <si>
-    <t>화</t>
-  </si>
-  <si>
-    <t>수</t>
-  </si>
-  <si>
-    <t>목</t>
-  </si>
-  <si>
-    <t>금</t>
-  </si>
-  <si>
-    <t>토</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+  <si>
+    <t>통화명</t>
+  </si>
+  <si>
+    <t>매매기준율</t>
+  </si>
+  <si>
+    <t>사실 때</t>
+  </si>
+  <si>
+    <t>파실 때</t>
+  </si>
+  <si>
+    <t>보내실 때</t>
+  </si>
+  <si>
+    <t>받으실 때</t>
+  </si>
+  <si>
+    <t>미화환산율</t>
+  </si>
+  <si>
+    <t>미국 USD</t>
+  </si>
+  <si>
+    <t>유럽연합 EUR</t>
+  </si>
+  <si>
+    <t>일본 JPY (100엔)</t>
+  </si>
+  <si>
+    <t>중국 CNY</t>
+  </si>
+  <si>
+    <t>홍콩 HKD</t>
+  </si>
+  <si>
+    <t>대만 TWD</t>
+  </si>
+  <si>
+    <t>영국 GBP</t>
+  </si>
+  <si>
+    <t>오만 OMR</t>
+  </si>
+  <si>
+    <t>캐나다 CAD</t>
+  </si>
+  <si>
+    <t>스위스 CHF</t>
+  </si>
+  <si>
+    <t>스웨덴 SEK</t>
+  </si>
+  <si>
+    <t>호주 AUD</t>
+  </si>
+  <si>
+    <t>뉴질랜드 NZD</t>
+  </si>
+  <si>
+    <t>체코 CZK</t>
+  </si>
+  <si>
+    <t>칠레 CLP</t>
+  </si>
+  <si>
+    <t>터키 TRY</t>
+  </si>
+  <si>
+    <t>몽골 MNT</t>
+  </si>
+  <si>
+    <t>이스라엘 ILS</t>
+  </si>
+  <si>
+    <t>덴마크 DKK</t>
+  </si>
+  <si>
+    <t>노르웨이 NOK</t>
+  </si>
+  <si>
+    <t>사우디아라비아 SAR</t>
+  </si>
+  <si>
+    <t>쿠웨이트 KWD</t>
+  </si>
+  <si>
+    <t>바레인 BHD</t>
+  </si>
+  <si>
+    <t>아랍에미리트 AED</t>
+  </si>
+  <si>
+    <t>요르단 JOD</t>
+  </si>
+  <si>
+    <t>이집트 EGP</t>
+  </si>
+  <si>
+    <t>태국 THB</t>
+  </si>
+  <si>
+    <t>싱가포르 SGD</t>
+  </si>
+  <si>
+    <t>말레이시아 MYR</t>
+  </si>
+  <si>
+    <t>인도네시아 IDR 100</t>
+  </si>
+  <si>
+    <t>카타르 QAR</t>
+  </si>
+  <si>
+    <t>카자흐스탄 KZT</t>
+  </si>
+  <si>
+    <t>브루나이 BND</t>
+  </si>
+  <si>
+    <t>인도 INR</t>
+  </si>
+  <si>
+    <t>파키스탄 PKR</t>
+  </si>
+  <si>
+    <t>방글라데시 BDT</t>
+  </si>
+  <si>
+    <t>필리핀 PHP</t>
+  </si>
+  <si>
+    <t>멕시코 MXN</t>
+  </si>
+  <si>
+    <t>브라질 BRL</t>
+  </si>
+  <si>
+    <t>베트남 VND 100</t>
+  </si>
+  <si>
+    <t>남아프리카 공화국 ZAR</t>
+  </si>
+  <si>
+    <t>러시아 RUB</t>
+  </si>
+  <si>
+    <t>헝가리 HUF</t>
+  </si>
+  <si>
+    <t>폴란드 PLN</t>
   </si>
 </sst>
 </file>
@@ -392,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -421,6 +553,1018 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1175</v>
+      </c>
+      <c r="C2">
+        <v>1195.56</v>
+      </c>
+      <c r="D2">
+        <v>1154.44</v>
+      </c>
+      <c r="E2">
+        <v>1186.5</v>
+      </c>
+      <c r="F2">
+        <v>1163.5</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>1367.52</v>
+      </c>
+      <c r="C3">
+        <v>1394.73</v>
+      </c>
+      <c r="D3">
+        <v>1340.31</v>
+      </c>
+      <c r="E3">
+        <v>1381.19</v>
+      </c>
+      <c r="F3">
+        <v>1353.85</v>
+      </c>
+      <c r="G3">
+        <v>1.164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>1114.64</v>
+      </c>
+      <c r="C4">
+        <v>1134.14</v>
+      </c>
+      <c r="D4">
+        <v>1095.14</v>
+      </c>
+      <c r="E4">
+        <v>1125.56</v>
+      </c>
+      <c r="F4">
+        <v>1103.72</v>
+      </c>
+      <c r="G4">
+        <v>0.9490000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>171.69</v>
+      </c>
+      <c r="C5">
+        <v>180.27</v>
+      </c>
+      <c r="D5">
+        <v>163.11</v>
+      </c>
+      <c r="E5">
+        <v>173.4</v>
+      </c>
+      <c r="F5">
+        <v>169.98</v>
+      </c>
+      <c r="G5">
+        <v>0.146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>151.61</v>
+      </c>
+      <c r="C6">
+        <v>154.59</v>
+      </c>
+      <c r="D6">
+        <v>148.63</v>
+      </c>
+      <c r="E6">
+        <v>153.12</v>
+      </c>
+      <c r="F6">
+        <v>150.1</v>
+      </c>
+      <c r="G6">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>40.13</v>
+      </c>
+      <c r="C7">
+        <v>45.38</v>
+      </c>
+      <c r="D7">
+        <v>37.33</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>1492.13</v>
+      </c>
+      <c r="C8">
+        <v>1521.52</v>
+      </c>
+      <c r="D8">
+        <v>1462.74</v>
+      </c>
+      <c r="E8">
+        <v>1507.05</v>
+      </c>
+      <c r="F8">
+        <v>1477.21</v>
+      </c>
+      <c r="G8">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>3051.95</v>
+      </c>
+      <c r="C9">
+        <v>3323.57</v>
+      </c>
+      <c r="D9">
+        <v>2868.84</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2.597</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>877.78</v>
+      </c>
+      <c r="C10">
+        <v>895.0700000000001</v>
+      </c>
+      <c r="D10">
+        <v>860.49</v>
+      </c>
+      <c r="E10">
+        <v>886.55</v>
+      </c>
+      <c r="F10">
+        <v>869.01</v>
+      </c>
+      <c r="G10">
+        <v>0.747</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>1266.16</v>
+      </c>
+      <c r="C11">
+        <v>1291.1</v>
+      </c>
+      <c r="D11">
+        <v>1241.22</v>
+      </c>
+      <c r="E11">
+        <v>1278.82</v>
+      </c>
+      <c r="F11">
+        <v>1253.5</v>
+      </c>
+      <c r="G11">
+        <v>1.078</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>128.31</v>
+      </c>
+      <c r="C12">
+        <v>131.45</v>
+      </c>
+      <c r="D12">
+        <v>125.17</v>
+      </c>
+      <c r="E12">
+        <v>129.59</v>
+      </c>
+      <c r="F12">
+        <v>127.03</v>
+      </c>
+      <c r="G12">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>826.14</v>
+      </c>
+      <c r="C13">
+        <v>842.41</v>
+      </c>
+      <c r="D13">
+        <v>809.87</v>
+      </c>
+      <c r="E13">
+        <v>834.4</v>
+      </c>
+      <c r="F13">
+        <v>817.88</v>
+      </c>
+      <c r="G13">
+        <v>0.703</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>769.27</v>
+      </c>
+      <c r="C14">
+        <v>784.42</v>
+      </c>
+      <c r="D14">
+        <v>754.12</v>
+      </c>
+      <c r="E14">
+        <v>776.96</v>
+      </c>
+      <c r="F14">
+        <v>761.58</v>
+      </c>
+      <c r="G14">
+        <v>0.655</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>50.42</v>
+      </c>
+      <c r="C15">
+        <v>54.7</v>
+      </c>
+      <c r="D15">
+        <v>45.89</v>
+      </c>
+      <c r="E15">
+        <v>50.97</v>
+      </c>
+      <c r="F15">
+        <v>49.87</v>
+      </c>
+      <c r="G15">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>1.5</v>
+      </c>
+      <c r="C16">
+        <v>1.62</v>
+      </c>
+      <c r="D16">
+        <v>1.38</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>154.27</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>155.96</v>
+      </c>
+      <c r="F17">
+        <v>152.58</v>
+      </c>
+      <c r="G17">
+        <v>0.131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.41</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>337.49</v>
+      </c>
+      <c r="C19">
+        <v>371.23</v>
+      </c>
+      <c r="D19">
+        <v>310.5</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0.287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>183.62</v>
+      </c>
+      <c r="C20">
+        <v>188.11</v>
+      </c>
+      <c r="D20">
+        <v>179.13</v>
+      </c>
+      <c r="E20">
+        <v>185.45</v>
+      </c>
+      <c r="F20">
+        <v>181.79</v>
+      </c>
+      <c r="G20">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>122.33</v>
+      </c>
+      <c r="C21">
+        <v>125.32</v>
+      </c>
+      <c r="D21">
+        <v>119.34</v>
+      </c>
+      <c r="E21">
+        <v>123.55</v>
+      </c>
+      <c r="F21">
+        <v>121.11</v>
+      </c>
+      <c r="G21">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>313.27</v>
+      </c>
+      <c r="C22">
+        <v>333</v>
+      </c>
+      <c r="D22">
+        <v>291.66</v>
+      </c>
+      <c r="E22">
+        <v>316.4</v>
+      </c>
+      <c r="F22">
+        <v>310.14</v>
+      </c>
+      <c r="G22">
+        <v>0.267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>3834.48</v>
+      </c>
+      <c r="C23">
+        <v>4083.72</v>
+      </c>
+      <c r="D23">
+        <v>3527.73</v>
+      </c>
+      <c r="E23">
+        <v>3872.82</v>
+      </c>
+      <c r="F23">
+        <v>3796.14</v>
+      </c>
+      <c r="G23">
+        <v>3.263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>3115.88</v>
+      </c>
+      <c r="C24">
+        <v>3315.29</v>
+      </c>
+      <c r="D24">
+        <v>2866.61</v>
+      </c>
+      <c r="E24">
+        <v>3147.03</v>
+      </c>
+      <c r="F24">
+        <v>3084.73</v>
+      </c>
+      <c r="G24">
+        <v>2.652</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>319.89</v>
+      </c>
+      <c r="C25">
+        <v>337.48</v>
+      </c>
+      <c r="D25">
+        <v>297.82</v>
+      </c>
+      <c r="E25">
+        <v>323.08</v>
+      </c>
+      <c r="F25">
+        <v>316.7</v>
+      </c>
+      <c r="G25">
+        <v>0.272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>1657.26</v>
+      </c>
+      <c r="C26">
+        <v>1804.75</v>
+      </c>
+      <c r="D26">
+        <v>1524.68</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>74.48</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0.063</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>37.12</v>
+      </c>
+      <c r="C28">
+        <v>38.97</v>
+      </c>
+      <c r="D28">
+        <v>34.9</v>
+      </c>
+      <c r="E28">
+        <v>37.49</v>
+      </c>
+      <c r="F28">
+        <v>36.75</v>
+      </c>
+      <c r="G28">
+        <v>0.032</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>852.62</v>
+      </c>
+      <c r="C29">
+        <v>869.58</v>
+      </c>
+      <c r="D29">
+        <v>835.66</v>
+      </c>
+      <c r="E29">
+        <v>861.14</v>
+      </c>
+      <c r="F29">
+        <v>844.1</v>
+      </c>
+      <c r="G29">
+        <v>0.726</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>281.94</v>
+      </c>
+      <c r="C30">
+        <v>299.7</v>
+      </c>
+      <c r="D30">
+        <v>261.08</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>279.13</v>
+      </c>
+      <c r="G30">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>7.93</v>
+      </c>
+      <c r="C31">
+        <v>8.48</v>
+      </c>
+      <c r="D31">
+        <v>7.14</v>
+      </c>
+      <c r="E31">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <v>7.86</v>
+      </c>
+      <c r="G31">
+        <v>0.006999999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>322.65</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0.275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>2.75</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>852.62</v>
+      </c>
+      <c r="C34">
+        <v>886.72</v>
+      </c>
+      <c r="D34">
+        <v>801.47</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0.726</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>15.94</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>7.09</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>13.86</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>24.22</v>
+      </c>
+      <c r="C38">
+        <v>26.64</v>
+      </c>
+      <c r="D38">
+        <v>22.24</v>
+      </c>
+      <c r="E38">
+        <v>24.46</v>
+      </c>
+      <c r="F38">
+        <v>23.98</v>
+      </c>
+      <c r="G38">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>52.51</v>
+      </c>
+      <c r="C39">
+        <v>57.76</v>
+      </c>
+      <c r="D39">
+        <v>48.1</v>
+      </c>
+      <c r="E39">
+        <v>53.03</v>
+      </c>
+      <c r="F39">
+        <v>51.99</v>
+      </c>
+      <c r="G39">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>213.25</v>
+      </c>
+      <c r="C40">
+        <v>235</v>
+      </c>
+      <c r="D40">
+        <v>196.19</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>210.7</v>
+      </c>
+      <c r="G40">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>5.07</v>
+      </c>
+      <c r="C41">
+        <v>5.66</v>
+      </c>
+      <c r="D41">
+        <v>4.48</v>
+      </c>
+      <c r="E41">
+        <v>5.12</v>
+      </c>
+      <c r="F41">
+        <v>5.02</v>
+      </c>
+      <c r="G41">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>68.55</v>
+      </c>
+      <c r="C42">
+        <v>72.66</v>
+      </c>
+      <c r="D42">
+        <v>63.07</v>
+      </c>
+      <c r="E42">
+        <v>69.37</v>
+      </c>
+      <c r="F42">
+        <v>67.73</v>
+      </c>
+      <c r="G42">
+        <v>0.058</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>15.12</v>
+      </c>
+      <c r="C43">
+        <v>16.17</v>
+      </c>
+      <c r="D43">
+        <v>13.46</v>
+      </c>
+      <c r="E43">
+        <v>15.27</v>
+      </c>
+      <c r="F43">
+        <v>14.97</v>
+      </c>
+      <c r="G43">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>3.76</v>
+      </c>
+      <c r="C44">
+        <v>4.1</v>
+      </c>
+      <c r="D44">
+        <v>3.46</v>
+      </c>
+      <c r="E44">
+        <v>3.8</v>
+      </c>
+      <c r="F44">
+        <v>3.72</v>
+      </c>
+      <c r="G44">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>299.84</v>
+      </c>
+      <c r="C45">
+        <v>323.82</v>
+      </c>
+      <c r="D45">
+        <v>275.86</v>
+      </c>
+      <c r="E45">
+        <v>303.13</v>
+      </c>
+      <c r="F45">
+        <v>296.55</v>
+      </c>
+      <c r="G45">
+        <v>0.255</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
